--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9403,11 +9403,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9416,12 +9416,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12187,11 +12187,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -12998,16 +12998,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13016,12 +13016,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13051,11 +13051,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13142,16 +13142,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13160,12 +13160,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/02/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9464,12 +9464,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,11 +12235,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13046,16 +13046,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13094,16 +13094,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13112,12 +13112,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13094,16 +13094,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13112,12 +13112,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9512,12 +9512,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13094,16 +13094,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13112,12 +13112,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13147,11 +13147,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13142,16 +13142,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13160,12 +13160,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13142,16 +13142,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13160,12 +13160,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,11 +12331,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12344,12 +12344,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13142,16 +13142,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13160,12 +13160,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9608,12 +9608,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13190,16 +13190,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13208,12 +13208,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9656,12 +9656,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12440,12 +12440,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13238,16 +13238,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melifedd SpA</t>
+          <t>Melifeed SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Melifedd SpA</t>
+          <t>Melifeed SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Melifedd SpA</t>
+          <t>Melifeed SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12488,12 +12488,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13286,16 +13286,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Melifedd SpA</t>
+          <t>Melifeed SpA</t>
         </is>
       </c>
       <c r="F284" t="n">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>PSF Puangue SpA.</t>
         </is>
       </c>
       <c r="F21" t="n">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,11 +12523,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12536,12 +12536,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13334,16 +13334,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12619,11 +12619,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12632,12 +12632,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12619,11 +12619,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12632,12 +12632,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>24/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Max Albert Hans Jurgen Bielitz Müller</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Granja Sajonia</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Max Albert Hans Jurgen Bielitz Müller</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6206156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9800,12 +9800,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12619,11 +12619,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12632,12 +12632,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13382,16 +13382,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12619,11 +12619,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12632,12 +12632,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12667,11 +12667,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13574,16 +13574,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13592,12 +13592,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12619,11 +12619,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12632,12 +12632,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12667,11 +12667,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13430,16 +13430,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13574,16 +13574,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13592,12 +13592,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12667,11 +12667,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13622,16 +13622,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13640,12 +13640,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12667,11 +12667,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13622,16 +13622,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13640,12 +13640,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Ostolazas</t>
+          <t>PROYECTO BARRIO SANTA MARIA ORIENTE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOLAR TI CINCUENTA Y CINCO SPA</t>
+          <t>EMPRESA CONSTRUCTORA MOLLER Y PÉREZ COTAPOS S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>51045</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160012018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROYECTO BARRIO SANTA MARIA ORIENTE</t>
+          <t>Parque Fotovoltaico Ostolazas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMPRESA CONSTRUCTORA MOLLER Y PÉREZ COTAPOS S.A.</t>
+          <t>SOLAR TI CINCUENTA Y CINCO SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>51045</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160012018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12667,11 +12667,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13478,16 +13478,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13531,11 +13531,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13622,16 +13622,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13640,12 +13640,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROYECTO BARRIO SANTA MARIA ORIENTE</t>
+          <t>Parque Fotovoltaico Ostolazas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMPRESA CONSTRUCTORA MOLLER Y PÉREZ COTAPOS S.A.</t>
+          <t>SOLAR TI CINCUENTA Y CINCO SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>51045</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160012018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Ostolazas</t>
+          <t>PROYECTO BARRIO SANTA MARIA ORIENTE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOLAR TI CINCUENTA Y CINCO SPA</t>
+          <t>EMPRESA CONSTRUCTORA MOLLER Y PÉREZ COTAPOS S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>51045</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160012018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Agroindustrial Codigua LTDA</t>
+          <t>Sociedad Agroindustrial Codigua SpA</t>
         </is>
       </c>
       <c r="F125" t="n">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,11 +9979,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -9992,12 +9992,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12763,11 +12763,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12776,12 +12776,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13670,16 +13670,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13688,12 +13688,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,11 +9979,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -9992,12 +9992,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12763,11 +12763,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12776,12 +12776,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13670,16 +13670,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13688,12 +13688,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/Melipilla.xlsx
+++ b/data/Melipilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>El Maiten Norte</t>
+          <t>Conjunto Habitacional Valles de Melipilla</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agricola Melipilla Limitada</t>
+          <t>Inmobiliaria San Andrés S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>84000</v>
+        <v>9931</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valles de Melipilla</t>
+          <t>El Maiten Norte</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria San Andrés S.A.</t>
+          <t>Agricola Melipilla Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9931</v>
+        <v>84000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8078548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8092648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inversiones Mel 20 Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9944,12 +9944,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Extracción de material Inerte Origen Volcánico (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,11 +9979,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Inversiones Mel 20 Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -9992,12 +9992,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2957419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12728,12 +12728,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Líquidos Viña Tres palacios (e-seia)</t>
+          <t>Mejoramiento Tecnológico Sistema de Tratamiento Purines de Cerdos, sector Tantehue (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12763,11 +12763,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Bodega y Viñedos Tres Palacios Ltda.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>35</v>
+        <v>5000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12776,12 +12776,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1366472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13526,16 +13526,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>200</v>
+        <v>13700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13579,11 +13579,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13627,11 +13627,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Melipilla (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13670,16 +13670,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13688,12 +13688,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=965784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
